--- a/Gokulraj_testing_sheet.xlsx
+++ b/Gokulraj_testing_sheet.xlsx
@@ -46,9 +46,6 @@
     <t>Valid login</t>
   </si>
   <si>
-    <t>Navigate to facebook,Enter a valid email,Enter a valid password</t>
-  </si>
-  <si>
     <t>Email:Valid@gmail.com  Password:Valid@321</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>invalid Pass</t>
   </si>
   <si>
-    <t>Navigate to facebook,Enter a invalid password</t>
-  </si>
-  <si>
     <t>Email:Valid@gmail.com  Password:Valid@321 Password:Wrong@321</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>Invalid Email</t>
   </si>
   <si>
-    <t>Navigate to facebook Enter a invalid Email ID</t>
-  </si>
-  <si>
     <t>Email:Wrong@gmail.com Password:Valid@321</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>Invalid Email Invalid Paasword</t>
   </si>
   <si>
-    <t>Navigate to the facebook Enter a Invalid Email and Paasword</t>
-  </si>
-  <si>
     <t>Email:Wrong@gmail.com Password:Valid@321 Password:Wrong@321</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>Empty Email Field</t>
   </si>
   <si>
-    <t>Navigate to Facebook, Leave email field blank, Enter valid password</t>
-  </si>
-  <si>
     <t>Email:   (empty), Password: Valid@321</t>
   </si>
   <si>
@@ -133,9 +118,6 @@
     <t>Empty Password Field</t>
   </si>
   <si>
-    <t>Navigate to Facebook, Enter valid email, Leave password field blank</t>
-  </si>
-  <si>
     <t>Email: Valid@gmail.com, Password:   (empty)</t>
   </si>
   <si>
@@ -148,9 +130,6 @@
     <t>Invalid Email Format</t>
   </si>
   <si>
-    <t>Navigate to Facebook, Enter invalid email format, Enter valid password</t>
-  </si>
-  <si>
     <t>Email: InvalidEmail.com, Password: Valid@321</t>
   </si>
   <si>
@@ -163,9 +142,6 @@
     <t>Caps Lock Email</t>
   </si>
   <si>
-    <t>Navigate to Facebook, Enter email in uppercase, Enter valid password</t>
-  </si>
-  <si>
     <t>Email: VALID@GMAIL.COM, Password: Valid@321</t>
   </si>
   <si>
@@ -181,13 +157,37 @@
     <t>Multiple Login Attempts</t>
   </si>
   <si>
-    <t>Navigate to Facebook, Enter incorrect email and password multiple times</t>
-  </si>
-  <si>
     <t>Email: Wrong@gmail.com, Password: WrongPass</t>
   </si>
   <si>
     <t>Account lock message after 3 failed attempts: "Too many failed attempts"</t>
+  </si>
+  <si>
+    <t>Navigate to facebook.com Enter a valid email,Enter a valid password</t>
+  </si>
+  <si>
+    <t>Navigate to facebook.com Enter a invalid password</t>
+  </si>
+  <si>
+    <t>Navigate to facebook.com Enter a invalid Email ID</t>
+  </si>
+  <si>
+    <t>Navigate to the facebook.com Enter a Invalid Email and Paasword</t>
+  </si>
+  <si>
+    <t>Navigate to Facebook.com Leave email field blank, Enter valid password</t>
+  </si>
+  <si>
+    <t>Navigate to facebook, Enter valid email, Leave password field blank</t>
+  </si>
+  <si>
+    <t>Navigate to facebook.com Enter invalid email format, Enter valid password</t>
+  </si>
+  <si>
+    <t>Navigate to facebook.com Enter email in uppercase, Enter valid password</t>
+  </si>
+  <si>
+    <t>Navigate to facebook.com Enter incorrect email and password multiple times</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -511,7 +511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -519,197 +519,197 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
